--- a/Project 5/analysis.xlsx
+++ b/Project 5/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/Medizin/MCIT/Courses/CIS 549/VM/CIS-549-Projects/Project 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aj/Google Drive/Documents/Aleks/Penn MCIT/549/Project5/CIS-549-Projects/Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141DADE8-027B-1C4A-A4F0-429743E9CAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441950CC-2BCE-E040-A217-9C935BF2C582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,14 +591,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.1640625" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1900,5 +1900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>